--- a/test/expected/insert_note.xlsx
+++ b/test/expected/insert_note.xlsx
@@ -17,25 +17,39 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
+    <author>Yuya Ryuzaki</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="20"/>
+            <color indexed="81"/>
+            <rFont val="Meiryo UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is other note</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="8"/>
+            <sz val="11"/>
             <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <rFont val="Meiryo UI"/>
             <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
         <r>
           <rPr>
-            <sz val="8"/>
+            <sz val="11"/>
             <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <rFont val="Meiryo UI"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
@@ -380,13 +394,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1"/>
+    <row r="1" spans="1:2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
